--- a/data/annotations/new_annotation_structure_out/agreement-statistics-mistral-large-2411-1-mistral-large-2411-2-mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/agreement-statistics-mistral-large-2411-1-mistral-large-2411-2-mistral-large-2411-3.xlsx
@@ -483,13 +483,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0.8658291756942098</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0.8316898340659776</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.8487595048800938</v>
       </c>
     </row>
     <row r="7">
@@ -502,10 +502,10 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0.8857063348506231</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.8757677552724165</v>
       </c>
     </row>
     <row r="8">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0.8586980844583003</v>
       </c>
     </row>
     <row r="9">
@@ -528,22 +528,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>0.8487595048800938</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>0.8757677552724165</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0.8586980844583003</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>0.8610751148702702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 3: 1.000</t>
+          <t>Fleiss' Kappa for iteration 3: 0.861</t>
         </is>
       </c>
     </row>
@@ -593,13 +593,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>0.8531285125515174</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0.8531285125515174</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>0.8531285125515174</v>
       </c>
     </row>
     <row r="17">
@@ -612,10 +612,10 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>0.8245189016105078</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0.8388237070810126</v>
       </c>
     </row>
     <row r="18">
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>0.8388237070810126</v>
       </c>
     </row>
     <row r="19">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1</v>
+        <v>0.8531285125515174</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.8388237070810126</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.8388237070810126</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>0.8435919755711808</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 4: 1.000</t>
+          <t>Fleiss' Kappa for iteration 4: 0.843</t>
         </is>
       </c>
     </row>
@@ -703,13 +703,13 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>0.7982321291314374</v>
       </c>
       <c r="D26" t="n">
-        <v>1</v>
+        <v>0.7901564288439527</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0.794194278987695</v>
       </c>
     </row>
     <row r="27">
@@ -722,10 +722,10 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1</v>
+        <v>0.893526405451448</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0.8458792672914427</v>
       </c>
     </row>
     <row r="28">
@@ -738,7 +738,7 @@
         <v>1</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>0.8418414171477003</v>
       </c>
     </row>
     <row r="29">
@@ -748,22 +748,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>0.794194278987695</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0.8458792672914427</v>
       </c>
       <c r="D29" t="n">
-        <v>1</v>
+        <v>0.8418414171477003</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0.827304987808946</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 5: 1.000</t>
+          <t>Fleiss' Kappa for iteration 5: 0.827</t>
         </is>
       </c>
     </row>
@@ -813,13 +813,13 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>1</v>
+        <v>0.820262707912327</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0.8482772122161315</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0.8342699600642293</v>
       </c>
     </row>
     <row r="37">
@@ -832,10 +832,10 @@
         <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>0.8537227558632795</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0.8369927318878032</v>
       </c>
     </row>
     <row r="38">
@@ -848,7 +848,7 @@
         <v>1</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0.8509999840397056</v>
       </c>
     </row>
     <row r="39">
@@ -858,22 +858,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1</v>
+        <v>0.8342699600642293</v>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0.8369927318878032</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>0.8509999840397056</v>
       </c>
       <c r="E39" t="n">
-        <v>1</v>
+        <v>0.8407542253305794</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 6: 1.000</t>
+          <t>Fleiss' Kappa for iteration 6: 0.841</t>
         </is>
       </c>
     </row>
@@ -923,13 +923,13 @@
         <v>1</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>0.8133595284872299</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0.8391313090689725</v>
       </c>
       <c r="E46" t="n">
-        <v>1</v>
+        <v>0.8262454187781012</v>
       </c>
     </row>
     <row r="47">
@@ -942,10 +942,10 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0.8451413085559427</v>
       </c>
       <c r="E47" t="n">
-        <v>1</v>
+        <v>0.8292504185215863</v>
       </c>
     </row>
     <row r="48">
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
       <c r="E48" t="n">
-        <v>1</v>
+        <v>0.8421363088124576</v>
       </c>
     </row>
     <row r="49">
@@ -968,22 +968,22 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1</v>
+        <v>0.8262454187781012</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0.8292504185215863</v>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>0.8421363088124576</v>
       </c>
       <c r="E49" t="n">
-        <v>1</v>
+        <v>0.8325440487040483</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 7: 1.000</t>
+          <t>Fleiss' Kappa for iteration 7: 0.833</t>
         </is>
       </c>
     </row>
@@ -1033,13 +1033,13 @@
         <v>1</v>
       </c>
       <c r="C56" t="n">
-        <v>1</v>
+        <v>0.8494180737171391</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0.8384918071298526</v>
       </c>
       <c r="E56" t="n">
-        <v>1</v>
+        <v>0.8439549404234958</v>
       </c>
     </row>
     <row r="57">
@@ -1052,10 +1052,10 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0.7886180424109073</v>
       </c>
       <c r="E57" t="n">
-        <v>1</v>
+        <v>0.8190180580640232</v>
       </c>
     </row>
     <row r="58">
@@ -1068,7 +1068,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="n">
-        <v>1</v>
+        <v>0.8135549247703799</v>
       </c>
     </row>
     <row r="59">
@@ -1078,22 +1078,22 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1</v>
+        <v>0.8439549404234958</v>
       </c>
       <c r="C59" t="n">
-        <v>1</v>
+        <v>0.8190180580640232</v>
       </c>
       <c r="D59" t="n">
-        <v>1</v>
+        <v>0.8135549247703799</v>
       </c>
       <c r="E59" t="n">
-        <v>1</v>
+        <v>0.825509307752633</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 8: 1.000</t>
+          <t>Fleiss' Kappa for iteration 8: 0.825</t>
         </is>
       </c>
     </row>
@@ -1143,13 +1143,13 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>1</v>
+        <v>0.8435449682042999</v>
       </c>
       <c r="D66" t="n">
-        <v>1</v>
+        <v>0.8569969356486211</v>
       </c>
       <c r="E66" t="n">
-        <v>1</v>
+        <v>0.8502709519264605</v>
       </c>
     </row>
     <row r="67">
@@ -1162,10 +1162,10 @@
         <v>1</v>
       </c>
       <c r="D67" t="n">
-        <v>1</v>
+        <v>0.8637327142424548</v>
       </c>
       <c r="E67" t="n">
-        <v>1</v>
+        <v>0.8536388412233773</v>
       </c>
     </row>
     <row r="68">
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="E68" t="n">
-        <v>1</v>
+        <v>0.860364824945538</v>
       </c>
     </row>
     <row r="69">
@@ -1188,22 +1188,22 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1</v>
+        <v>0.8502709519264605</v>
       </c>
       <c r="C69" t="n">
-        <v>1</v>
+        <v>0.8536388412233773</v>
       </c>
       <c r="D69" t="n">
-        <v>1</v>
+        <v>0.860364824945538</v>
       </c>
       <c r="E69" t="n">
-        <v>1</v>
+        <v>0.854758206031792</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 9: 1.000</t>
+          <t>Fleiss' Kappa for iteration 9: 0.855</t>
         </is>
       </c>
     </row>
@@ -1253,13 +1253,13 @@
         <v>1</v>
       </c>
       <c r="C76" t="n">
-        <v>1</v>
+        <v>0.7967322285891281</v>
       </c>
       <c r="D76" t="n">
-        <v>1</v>
+        <v>0.800835519284951</v>
       </c>
       <c r="E76" t="n">
-        <v>1</v>
+        <v>0.7987838739370395</v>
       </c>
     </row>
     <row r="77">
@@ -1272,10 +1272,10 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>1</v>
+        <v>0.8287000783085356</v>
       </c>
       <c r="E77" t="n">
-        <v>1</v>
+        <v>0.8127161534488319</v>
       </c>
     </row>
     <row r="78">
@@ -1288,7 +1288,7 @@
         <v>1</v>
       </c>
       <c r="E78" t="n">
-        <v>1</v>
+        <v>0.8147677987967433</v>
       </c>
     </row>
     <row r="79">
@@ -1298,22 +1298,22 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>1</v>
+        <v>0.7987838739370395</v>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>0.8127161534488319</v>
       </c>
       <c r="D79" t="n">
-        <v>1</v>
+        <v>0.8147677987967433</v>
       </c>
       <c r="E79" t="n">
-        <v>1</v>
+        <v>0.8087559420608716</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 10: 1.000</t>
+          <t>Fleiss' Kappa for iteration 10: 0.809</t>
         </is>
       </c>
     </row>
@@ -1363,13 +1363,13 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>1</v>
+        <v>0.8189115113547376</v>
       </c>
       <c r="D86" t="n">
-        <v>1</v>
+        <v>0.9077024716306544</v>
       </c>
       <c r="E86" t="n">
-        <v>1</v>
+        <v>0.8633069914926961</v>
       </c>
     </row>
     <row r="87">
@@ -1382,10 +1382,10 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>1</v>
+        <v>0.8342191233117168</v>
       </c>
       <c r="E87" t="n">
-        <v>1</v>
+        <v>0.8265653173332272</v>
       </c>
     </row>
     <row r="88">
@@ -1398,7 +1398,7 @@
         <v>1</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>0.8709607974711856</v>
       </c>
     </row>
     <row r="89">
@@ -1408,22 +1408,22 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>1</v>
+        <v>0.8633069914926961</v>
       </c>
       <c r="C89" t="n">
-        <v>1</v>
+        <v>0.8265653173332272</v>
       </c>
       <c r="D89" t="n">
-        <v>1</v>
+        <v>0.8709607974711856</v>
       </c>
       <c r="E89" t="n">
-        <v>1</v>
+        <v>0.8536110354323695</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 11: 1.000</t>
+          <t>Fleiss' Kappa for iteration 11: 0.854</t>
         </is>
       </c>
     </row>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>0.8744115950657712</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>0.8711162255466053</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>0.8727639103061882</v>
       </c>
     </row>
     <row r="97">
@@ -1492,10 +1492,10 @@
         <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>1</v>
+        <v>0.8475750577367206</v>
       </c>
       <c r="E97" t="n">
-        <v>1</v>
+        <v>0.8609933264012459</v>
       </c>
     </row>
     <row r="98">
@@ -1508,7 +1508,7 @@
         <v>1</v>
       </c>
       <c r="E98" t="n">
-        <v>1</v>
+        <v>0.8593456416416629</v>
       </c>
     </row>
     <row r="99">
@@ -1518,22 +1518,22 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>1</v>
+        <v>0.8727639103061882</v>
       </c>
       <c r="C99" t="n">
-        <v>1</v>
+        <v>0.8609933264012459</v>
       </c>
       <c r="D99" t="n">
-        <v>1</v>
+        <v>0.8593456416416629</v>
       </c>
       <c r="E99" t="n">
-        <v>1</v>
+        <v>0.8643676261163656</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 12: 1.000</t>
+          <t>Fleiss' Kappa for iteration 12: 0.864</t>
         </is>
       </c>
     </row>
@@ -1583,13 +1583,13 @@
         <v>1</v>
       </c>
       <c r="C106" t="n">
-        <v>1</v>
+        <v>0.8360471434728025</v>
       </c>
       <c r="D106" t="n">
-        <v>1</v>
+        <v>0.9009247027741083</v>
       </c>
       <c r="E106" t="n">
-        <v>1</v>
+        <v>0.8684859231234554</v>
       </c>
     </row>
     <row r="107">
@@ -1602,10 +1602,10 @@
         <v>1</v>
       </c>
       <c r="D107" t="n">
-        <v>1</v>
+        <v>0.8495675065814215</v>
       </c>
       <c r="E107" t="n">
-        <v>1</v>
+        <v>0.842807325027112</v>
       </c>
     </row>
     <row r="108">
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="E108" t="n">
-        <v>1</v>
+        <v>0.8752461046777649</v>
       </c>
     </row>
     <row r="109">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>1</v>
+        <v>0.8684859231234554</v>
       </c>
       <c r="C109" t="n">
-        <v>1</v>
+        <v>0.842807325027112</v>
       </c>
       <c r="D109" t="n">
-        <v>1</v>
+        <v>0.8752461046777649</v>
       </c>
       <c r="E109" t="n">
-        <v>1</v>
+        <v>0.8621797842761109</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 13: 1.000</t>
+          <t>Fleiss' Kappa for iteration 13: 0.862</t>
         </is>
       </c>
     </row>
@@ -1693,13 +1693,13 @@
         <v>1</v>
       </c>
       <c r="C116" t="n">
-        <v>1</v>
+        <v>0.9206349206349207</v>
       </c>
       <c r="D116" t="n">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E116" t="n">
-        <v>1</v>
+        <v>0.8641636141636142</v>
       </c>
     </row>
     <row r="117">
@@ -1712,10 +1712,10 @@
         <v>1</v>
       </c>
       <c r="D117" t="n">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E117" t="n">
-        <v>1</v>
+        <v>0.8641636141636142</v>
       </c>
     </row>
     <row r="118">
@@ -1728,7 +1728,7 @@
         <v>1</v>
       </c>
       <c r="E118" t="n">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
     </row>
     <row r="119">
@@ -1738,22 +1738,22 @@
         </is>
       </c>
       <c r="B119" t="n">
-        <v>1</v>
+        <v>0.8641636141636142</v>
       </c>
       <c r="C119" t="n">
-        <v>1</v>
+        <v>0.8641636141636142</v>
       </c>
       <c r="D119" t="n">
-        <v>1</v>
+        <v>0.8076923076923077</v>
       </c>
       <c r="E119" t="n">
-        <v>1</v>
+        <v>0.8453398453398453</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Fleiss' Kappa for iteration 14: 1.000</t>
+          <t>Fleiss' Kappa for iteration 14: 0.845</t>
         </is>
       </c>
     </row>
@@ -1767,7 +1767,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Average Fleiss' Kappa across all iterations: 1.000</t>
+          <t>Average Fleiss' Kappa across all iterations: 0.843</t>
         </is>
       </c>
     </row>
@@ -1798,12 +1798,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>mistral-large-2411-1-mistral-large-2411-2</t>
+          <t>mistral-large-2411-1-mistral-large-2411-3</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.846</t>
         </is>
       </c>
       <c r="C128" t="n">
@@ -1813,12 +1813,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>mistral-large-2411-1-mistral-large-2411-3</t>
+          <t>mistral-large-2411-2-mistral-large-2411-3</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.844</t>
         </is>
       </c>
       <c r="C129" t="n">
@@ -1828,12 +1828,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>mistral-large-2411-2-mistral-large-2411-3</t>
+          <t>mistral-large-2411-1-mistral-large-2411-2</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>1.000</t>
+          <t>0.841</t>
         </is>
       </c>
       <c r="C130" t="n">
